--- a/inst/extdata/crrca.xlsx
+++ b/inst/extdata/crrca.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05E8D6-4530-4F4F-AA33-D094C54D8A42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723BCAA-04BC-DB41-85D6-4D76CEA5D23A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="580" windowWidth="27640" windowHeight="16940" xr2:uid="{C9C8053E-A7C9-1B4D-8123-B439711C5782}"/>
+    <workbookView xWindow="9860" yWindow="840" windowWidth="27640" windowHeight="16940" xr2:uid="{C9C8053E-A7C9-1B4D-8123-B439711C5782}"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="1" r:id="rId1"/>
-    <sheet name="other social benefits" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="other social benefits" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +131,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -151,16 +157,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{639E8B40-E1E3-E34C-9BF9-B2E98CEC5E4F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +205,7 @@
       <sheetName val="figuring out social benefits"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="15">
           <cell r="C15">
@@ -210,20 +218,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -528,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A9D30D-6BC5-BF42-8EFD-4607D0D7D9BF}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1332,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F73DF5-56B0-154D-8069-41FE45E0160B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F9FCA2-914C-6243-AF3E-4FF3A4110BE2}">
   <dimension ref="A1:E9"/>
   <sheetViews>

--- a/inst/extdata/crrca.xlsx
+++ b/inst/extdata/crrca.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723BCAA-04BC-DB41-85D6-4D76CEA5D23A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EFB7EE-C3F0-2649-95F6-2997382A11E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="840" windowWidth="27640" windowHeight="16940" xr2:uid="{C9C8053E-A7C9-1B4D-8123-B439711C5782}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{C9C8053E-A7C9-1B4D-8123-B439711C5782}"/>
   </bookViews>
   <sheets>
     <sheet name="ui" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="other social benefits" sheetId="2" r:id="rId3"/>
+    <sheet name="wide" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>state_ui</t>
   </si>
@@ -114,13 +115,25 @@
   </si>
   <si>
     <t>aviation</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subsidies</t>
+  </si>
+  <si>
+    <t>social benefits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +149,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -161,10 +187,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,7 +233,7 @@
       <sheetName val="figuring out social benefits"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="15">
           <cell r="C15">
@@ -218,20 +246,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -536,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A9D30D-6BC5-BF42-8EFD-4607D0D7D9BF}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="105" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1350,176 +1378,452 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.37759554848966609</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3">
+        <f>('[1]Stimulus Round 2'!$C$15*4/2)/1000</f>
+        <v>52</v>
+      </c>
+      <c r="E2" s="3">
+        <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3">
+        <f>('[1]Stimulus Round 2'!$C$15*4/2)/1000</f>
+        <v>52</v>
+      </c>
+      <c r="E3" s="3">
+        <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856F7AF2-3B78-714E-8C30-F432B5095EBF}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.37759554848966609</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0.37759554848966609</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="D2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
         <f>('[1]Stimulus Round 2'!$C$15*4/2)/1000</f>
         <v>52</v>
       </c>
-      <c r="E2">
+      <c r="D4" s="3">
+        <f>('[1]Stimulus Round 2'!$C$15*4/2)/1000</f>
+        <v>52</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3">
         <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <f>('[1]Stimulus Round 2'!$C$15*4/2)/1000</f>
-        <v>52</v>
-      </c>
-      <c r="E3">
+      <c r="D5" s="3">
         <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="E5" s="3">
         <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="F5" s="3">
         <f>('[1]Stimulus Round 2'!$C$19*4/4)/1000</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="22" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
